--- a/Testing/Wind tunnel/23rd Sept/Wind tunnel test 23Sept - Funnel, lid, horizontal.xlsx
+++ b/Testing/Wind tunnel/23rd Sept/Wind tunnel test 23Sept - Funnel, lid, horizontal.xlsx
@@ -9,13 +9,42 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870"/>
   </bookViews>
   <sheets>
     <sheet name="OPC_test_log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>0.38 - 1.05 Micron</t>
+  </si>
+  <si>
+    <t>1.05 - 3 Micron</t>
+  </si>
+  <si>
+    <t>3 - 10 Micron</t>
+  </si>
+  <si>
+    <t>10 - 14 Micron</t>
+  </si>
+  <si>
+    <t>14 - 17.5 Micron</t>
+  </si>
+  <si>
+    <t>Total Conc</t>
+  </si>
+  <si>
+    <t>Flow rate</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,8 +526,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -555,6 +585,6758 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Particle Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OPC_test_log!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.38 - 1.05 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OPC_test_log!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>177.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OPC_test_log!$B$2:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A49-419E-81E6-3909169928C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OPC_test_log!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.05 - 3 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OPC_test_log!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>177.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OPC_test_log!$C$2:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A49-419E-81E6-3909169928C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OPC_test_log!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 - 10 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OPC_test_log!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>177.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OPC_test_log!$D$2:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A49-419E-81E6-3909169928C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OPC_test_log!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 - 14 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OPC_test_log!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>177.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OPC_test_log!$E$2:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0A49-419E-81E6-3909169928C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OPC_test_log!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14 - 17.5 Micron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>OPC_test_log!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>177.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OPC_test_log!$F$2:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0A49-419E-81E6-3909169928C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="454318144"/>
+        <c:axId val="454329296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454318144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454329296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454329296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454318144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OPC_test_log!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>149.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>173.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>177.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>181.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>185.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OPC_test_log!$G$2:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D07B-4B90-8B9E-AFB190A33F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506027112"/>
+        <c:axId val="506027768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506027112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506027768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506027768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506027112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Total Conc Analysis"/>
+      <sheetName val="Particle Dist Analysis"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>12.1</v>
+          </cell>
+          <cell r="H2">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>16.2</v>
+          </cell>
+          <cell r="H3">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>20.2</v>
+          </cell>
+          <cell r="H4">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>24.2</v>
+          </cell>
+          <cell r="H5">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>28.3</v>
+          </cell>
+          <cell r="H6">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>32.299999999999997</v>
+          </cell>
+          <cell r="H7">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>36.299999999999997</v>
+          </cell>
+          <cell r="H8">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>40.4</v>
+          </cell>
+          <cell r="H9">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>44.4</v>
+          </cell>
+          <cell r="H10">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>48.5</v>
+          </cell>
+          <cell r="H11">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>52.5</v>
+          </cell>
+          <cell r="H12">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>56.5</v>
+          </cell>
+          <cell r="H13">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>60.6</v>
+          </cell>
+          <cell r="H14">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>64.599999999999994</v>
+          </cell>
+          <cell r="H15">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>68.599999999999994</v>
+          </cell>
+          <cell r="H16">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>72.7</v>
+          </cell>
+          <cell r="H17">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>76.7</v>
+          </cell>
+          <cell r="H18">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>80.7</v>
+          </cell>
+          <cell r="H19">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>84.8</v>
+          </cell>
+          <cell r="H20">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>88.8</v>
+          </cell>
+          <cell r="H21">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>92.9</v>
+          </cell>
+          <cell r="H22">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>96.9</v>
+          </cell>
+          <cell r="H23">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>100.9</v>
+          </cell>
+          <cell r="H24">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>105</v>
+          </cell>
+          <cell r="H25">
+            <v>0.71</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>109</v>
+          </cell>
+          <cell r="H26">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>113</v>
+          </cell>
+          <cell r="H27">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>117.1</v>
+          </cell>
+          <cell r="H28">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>121.1</v>
+          </cell>
+          <cell r="H29">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>125.1</v>
+          </cell>
+          <cell r="H30">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>129.19999999999999</v>
+          </cell>
+          <cell r="H31">
+            <v>0.13</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>133.19999999999999</v>
+          </cell>
+          <cell r="H32">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>137.30000000000001</v>
+          </cell>
+          <cell r="H33">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>141.30000000000001</v>
+          </cell>
+          <cell r="H34">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>145.30000000000001</v>
+          </cell>
+          <cell r="H35">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>149.4</v>
+          </cell>
+          <cell r="H36">
+            <v>0.73</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>153.4</v>
+          </cell>
+          <cell r="H37">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>157.4</v>
+          </cell>
+          <cell r="H38">
+            <v>0.63</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>161.5</v>
+          </cell>
+          <cell r="H39">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>165.5</v>
+          </cell>
+          <cell r="H40">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>169.6</v>
+          </cell>
+          <cell r="H41">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>173.6</v>
+          </cell>
+          <cell r="H42">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>177.6</v>
+          </cell>
+          <cell r="H43">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>181.7</v>
+          </cell>
+          <cell r="H44">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>185.7</v>
+          </cell>
+          <cell r="H45">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>189.7</v>
+          </cell>
+          <cell r="H46">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>193.8</v>
+          </cell>
+          <cell r="H47">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>197.8</v>
+          </cell>
+          <cell r="H48">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>201.9</v>
+          </cell>
+          <cell r="H49">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>205.9</v>
+          </cell>
+          <cell r="H50">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>210</v>
+          </cell>
+          <cell r="H51">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>214</v>
+          </cell>
+          <cell r="H52">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>218.10000000000002</v>
+          </cell>
+          <cell r="H53">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>222.10000000000002</v>
+          </cell>
+          <cell r="H54">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>226.10000000000002</v>
+          </cell>
+          <cell r="H55">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>230.20000000000002</v>
+          </cell>
+          <cell r="H56">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>234.20000000000002</v>
+          </cell>
+          <cell r="H57">
+            <v>0.11</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>238.20000000000002</v>
+          </cell>
+          <cell r="H58">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>242.3</v>
+          </cell>
+          <cell r="H59">
+            <v>1.18</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>246.3</v>
+          </cell>
+          <cell r="H60">
+            <v>0.77</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>250.3</v>
+          </cell>
+          <cell r="H61">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>254.40000000000003</v>
+          </cell>
+          <cell r="H62">
+            <v>1.19</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>258.39999999999998</v>
+          </cell>
+          <cell r="H63">
+            <v>1.35</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>262.5</v>
+          </cell>
+          <cell r="H64">
+            <v>1.21</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>266.5</v>
+          </cell>
+          <cell r="H65">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>270.5</v>
+          </cell>
+          <cell r="H66">
+            <v>0.77</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>274.60000000000002</v>
+          </cell>
+          <cell r="H67">
+            <v>1.22</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>278.60000000000002</v>
+          </cell>
+          <cell r="H68">
+            <v>1.08</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>282.60000000000002</v>
+          </cell>
+          <cell r="H69">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>286.70000000000005</v>
+          </cell>
+          <cell r="H70">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>290.70000000000005</v>
+          </cell>
+          <cell r="H71">
+            <v>0.97</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>294.70000000000005</v>
+          </cell>
+          <cell r="H72">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>298.8</v>
+          </cell>
+          <cell r="H73">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>302.8</v>
+          </cell>
+          <cell r="H74">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>306.89999999999998</v>
+          </cell>
+          <cell r="H75">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>310.89999999999998</v>
+          </cell>
+          <cell r="H76">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>314.89999999999998</v>
+          </cell>
+          <cell r="H77">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>319</v>
+          </cell>
+          <cell r="H78">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>323</v>
+          </cell>
+          <cell r="H79">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>327</v>
+          </cell>
+          <cell r="H80">
+            <v>0.93</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>331.1</v>
+          </cell>
+          <cell r="H81">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>335.1</v>
+          </cell>
+          <cell r="H82">
+            <v>1.1100000000000001</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>339.1</v>
+          </cell>
+          <cell r="H83">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>343.20000000000005</v>
+          </cell>
+          <cell r="H84">
+            <v>0.84</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>347.20000000000005</v>
+          </cell>
+          <cell r="H85">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>351.3</v>
+          </cell>
+          <cell r="H86">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>355.3</v>
+          </cell>
+          <cell r="H87">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>359.3</v>
+          </cell>
+          <cell r="H88">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>363.4</v>
+          </cell>
+          <cell r="H89">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>367.4</v>
+          </cell>
+          <cell r="H90">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>371.4</v>
+          </cell>
+          <cell r="H91">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>375.5</v>
+          </cell>
+          <cell r="H92">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>379.5</v>
+          </cell>
+          <cell r="H93">
+            <v>0.37</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>383.5</v>
+          </cell>
+          <cell r="H94">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>387.6</v>
+          </cell>
+          <cell r="H95">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>391.6</v>
+          </cell>
+          <cell r="H96">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>395.70000000000005</v>
+          </cell>
+          <cell r="H97">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>399.70000000000005</v>
+          </cell>
+          <cell r="H98">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>403.70000000000005</v>
+          </cell>
+          <cell r="H99">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>407.8</v>
+          </cell>
+          <cell r="H100">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>411.8</v>
+          </cell>
+          <cell r="H101">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>415.8</v>
+          </cell>
+          <cell r="H102">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>419.9</v>
+          </cell>
+          <cell r="H103">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>423.9</v>
+          </cell>
+          <cell r="H104">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>428</v>
+          </cell>
+          <cell r="H105">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>432</v>
+          </cell>
+          <cell r="H106">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>436</v>
+          </cell>
+          <cell r="H107">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>440.1</v>
+          </cell>
+          <cell r="H108">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>444.1</v>
+          </cell>
+          <cell r="H109">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>448.1</v>
+          </cell>
+          <cell r="H110">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>452.2</v>
+          </cell>
+          <cell r="H111">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>456.2</v>
+          </cell>
+          <cell r="H112">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>460.2</v>
+          </cell>
+          <cell r="H113">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>464.3</v>
+          </cell>
+          <cell r="H114">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>468.3</v>
+          </cell>
+          <cell r="H115">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>472.40000000000003</v>
+          </cell>
+          <cell r="H116">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>476.40000000000003</v>
+          </cell>
+          <cell r="H117">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>480.40000000000003</v>
+          </cell>
+          <cell r="H118">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>484.5</v>
+          </cell>
+          <cell r="H119">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>488.5</v>
+          </cell>
+          <cell r="H120">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>492.5</v>
+          </cell>
+          <cell r="H121">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>496.6</v>
+          </cell>
+          <cell r="H122">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>500.6</v>
+          </cell>
+          <cell r="H123">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>504.6</v>
+          </cell>
+          <cell r="H124">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>508.70000000000005</v>
+          </cell>
+          <cell r="H125">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>512.70000000000005</v>
+          </cell>
+          <cell r="H126">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>516.79999999999995</v>
+          </cell>
+          <cell r="H127">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>520.79999999999995</v>
+          </cell>
+          <cell r="H128">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>524.79999999999995</v>
+          </cell>
+          <cell r="H129">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>528.90000000000009</v>
+          </cell>
+          <cell r="H130">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>532.90000000000009</v>
+          </cell>
+          <cell r="H131">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>536.90000000000009</v>
+          </cell>
+          <cell r="H132">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>541</v>
+          </cell>
+          <cell r="H133">
+            <v>0.76</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>545</v>
+          </cell>
+          <cell r="H134">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>549</v>
+          </cell>
+          <cell r="H135">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>553.1</v>
+          </cell>
+          <cell r="H136">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>557.1</v>
+          </cell>
+          <cell r="H137">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>561.20000000000005</v>
+          </cell>
+          <cell r="H138">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>565.20000000000005</v>
+          </cell>
+          <cell r="H139">
+            <v>0.72</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>569.20000000000005</v>
+          </cell>
+          <cell r="H140">
+            <v>0.83</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>573.29999999999995</v>
+          </cell>
+          <cell r="H141">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>577.29999999999995</v>
+          </cell>
+          <cell r="H142">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>581.29999999999995</v>
+          </cell>
+          <cell r="H143">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>585.40000000000009</v>
+          </cell>
+          <cell r="H144">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>589.40000000000009</v>
+          </cell>
+          <cell r="H145">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>593.40000000000009</v>
+          </cell>
+          <cell r="H146">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>597.5</v>
+          </cell>
+          <cell r="H147">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>601.5</v>
+          </cell>
+          <cell r="H148">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>605.6</v>
+          </cell>
+          <cell r="H149">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>609.6</v>
+          </cell>
+          <cell r="H150">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>613.6</v>
+          </cell>
+          <cell r="H151">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>617.70000000000005</v>
+          </cell>
+          <cell r="H152">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>621.70000000000005</v>
+          </cell>
+          <cell r="H153">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>625.70000000000005</v>
+          </cell>
+          <cell r="H154">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>629.79999999999995</v>
+          </cell>
+          <cell r="H155">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>633.79999999999995</v>
+          </cell>
+          <cell r="H156">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>637.79999999999995</v>
+          </cell>
+          <cell r="H157">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>641.90000000000009</v>
+          </cell>
+          <cell r="H158">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>645.90000000000009</v>
+          </cell>
+          <cell r="H159">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>650</v>
+          </cell>
+          <cell r="H160">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>654</v>
+          </cell>
+          <cell r="H161">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>658</v>
+          </cell>
+          <cell r="H162">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>662.1</v>
+          </cell>
+          <cell r="H163">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>666.1</v>
+          </cell>
+          <cell r="H164">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>670.1</v>
+          </cell>
+          <cell r="H165">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>674.2</v>
+          </cell>
+          <cell r="H166">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>678.2</v>
+          </cell>
+          <cell r="H167">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>682.2</v>
+          </cell>
+          <cell r="H168">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>686.3</v>
+          </cell>
+          <cell r="H169">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>690.3</v>
+          </cell>
+          <cell r="H170">
+            <v>0.11</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>694.40000000000009</v>
+          </cell>
+          <cell r="H171">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>698.40000000000009</v>
+          </cell>
+          <cell r="H172">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>702.40000000000009</v>
+          </cell>
+          <cell r="H173">
+            <v>0.87</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>706.5</v>
+          </cell>
+          <cell r="H174">
+            <v>1.42</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>710.5</v>
+          </cell>
+          <cell r="H175">
+            <v>2.46</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>714.5</v>
+          </cell>
+          <cell r="H176">
+            <v>1.42</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>718.59999999999991</v>
+          </cell>
+          <cell r="H177">
+            <v>1.51</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>722.59999999999991</v>
+          </cell>
+          <cell r="H178">
+            <v>0.74</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>726.7</v>
+          </cell>
+          <cell r="H179">
+            <v>1.17</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>730.7</v>
+          </cell>
+          <cell r="H180">
+            <v>1.68</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>734.7</v>
+          </cell>
+          <cell r="H181">
+            <v>1.0900000000000001</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>738.8</v>
+          </cell>
+          <cell r="H182">
+            <v>1.82</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>742.8</v>
+          </cell>
+          <cell r="H183">
+            <v>1.08</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>746.8</v>
+          </cell>
+          <cell r="H184">
+            <v>1.26</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>750.90000000000009</v>
+          </cell>
+          <cell r="H185">
+            <v>1.43</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>754.90000000000009</v>
+          </cell>
+          <cell r="H186">
+            <v>1.4</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>758.90000000000009</v>
+          </cell>
+          <cell r="H187">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>763</v>
+          </cell>
+          <cell r="H188">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>767</v>
+          </cell>
+          <cell r="H189">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>771.09999999999991</v>
+          </cell>
+          <cell r="H190">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>775.09999999999991</v>
+          </cell>
+          <cell r="H191">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>779.09999999999991</v>
+          </cell>
+          <cell r="H192">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>783.2</v>
+          </cell>
+          <cell r="H193">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>787.2</v>
+          </cell>
+          <cell r="H194">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>791.2</v>
+          </cell>
+          <cell r="H195">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>795.3</v>
+          </cell>
+          <cell r="H196">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>799.3</v>
+          </cell>
+          <cell r="H197">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>803.3</v>
+          </cell>
+          <cell r="H198">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>807.40000000000009</v>
+          </cell>
+          <cell r="H199">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>811.40000000000009</v>
+          </cell>
+          <cell r="H200">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>815.5</v>
+          </cell>
+          <cell r="H201">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202">
+            <v>819.5</v>
+          </cell>
+          <cell r="H202">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203">
+            <v>823.5</v>
+          </cell>
+          <cell r="H203">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204">
+            <v>827.59999999999991</v>
+          </cell>
+          <cell r="H204">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205">
+            <v>831.59999999999991</v>
+          </cell>
+          <cell r="H205">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206">
+            <v>835.59999999999991</v>
+          </cell>
+          <cell r="H206">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207">
+            <v>839.7</v>
+          </cell>
+          <cell r="H207">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208">
+            <v>843.7</v>
+          </cell>
+          <cell r="H208">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209">
+            <v>847.7</v>
+          </cell>
+          <cell r="H209">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210">
+            <v>851.8</v>
+          </cell>
+          <cell r="H210">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211">
+            <v>855.8</v>
+          </cell>
+          <cell r="H211">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212">
+            <v>859.90000000000009</v>
+          </cell>
+          <cell r="H212">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213">
+            <v>863.90000000000009</v>
+          </cell>
+          <cell r="H213">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214">
+            <v>867.90000000000009</v>
+          </cell>
+          <cell r="H214">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215">
+            <v>872</v>
+          </cell>
+          <cell r="H215">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216">
+            <v>876</v>
+          </cell>
+          <cell r="H216">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217">
+            <v>880</v>
+          </cell>
+          <cell r="H217">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218">
+            <v>884.09999999999991</v>
+          </cell>
+          <cell r="H218">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219">
+            <v>888.09999999999991</v>
+          </cell>
+          <cell r="H219">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220">
+            <v>892.09999999999991</v>
+          </cell>
+          <cell r="H220">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221">
+            <v>896.2</v>
+          </cell>
+          <cell r="H221">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222">
+            <v>900.2</v>
+          </cell>
+          <cell r="H222">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223">
+            <v>904.3</v>
+          </cell>
+          <cell r="H223">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224">
+            <v>908.3</v>
+          </cell>
+          <cell r="H224">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225">
+            <v>912.3</v>
+          </cell>
+          <cell r="H225">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226">
+            <v>916.40000000000009</v>
+          </cell>
+          <cell r="H226">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227">
+            <v>920.40000000000009</v>
+          </cell>
+          <cell r="H227">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228">
+            <v>924.40000000000009</v>
+          </cell>
+          <cell r="H228">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229">
+            <v>928.5</v>
+          </cell>
+          <cell r="H229">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230">
+            <v>932.5</v>
+          </cell>
+          <cell r="H230">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231">
+            <v>936.5</v>
+          </cell>
+          <cell r="H231">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232">
+            <v>940.59999999999991</v>
+          </cell>
+          <cell r="H232">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233">
+            <v>944.59999999999991</v>
+          </cell>
+          <cell r="H233">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234">
+            <v>948.7</v>
+          </cell>
+          <cell r="H234">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235">
+            <v>952.7</v>
+          </cell>
+          <cell r="H235">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236">
+            <v>956.7</v>
+          </cell>
+          <cell r="H236">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237">
+            <v>960.8</v>
+          </cell>
+          <cell r="H237">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238">
+            <v>964.8</v>
+          </cell>
+          <cell r="H238">
+            <v>0.37</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239">
+            <v>968.8</v>
+          </cell>
+          <cell r="H239">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240">
+            <v>972.90000000000009</v>
+          </cell>
+          <cell r="H240">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241">
+            <v>976.90000000000009</v>
+          </cell>
+          <cell r="H241">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242">
+            <v>980.90000000000009</v>
+          </cell>
+          <cell r="H242">
+            <v>1.17</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243">
+            <v>985</v>
+          </cell>
+          <cell r="H243">
+            <v>0.93</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244">
+            <v>989</v>
+          </cell>
+          <cell r="H244">
+            <v>1.3</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245">
+            <v>993.09999999999991</v>
+          </cell>
+          <cell r="H245">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246">
+            <v>997.09999999999991</v>
+          </cell>
+          <cell r="H246">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247">
+            <v>1001.0999999999999</v>
+          </cell>
+          <cell r="H247">
+            <v>1.1399999999999999</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248">
+            <v>1005.2</v>
+          </cell>
+          <cell r="H248">
+            <v>1.01</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249">
+            <v>1009.2</v>
+          </cell>
+          <cell r="H249">
+            <v>1.29</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250">
+            <v>1013.2</v>
+          </cell>
+          <cell r="H250">
+            <v>1.04</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251">
+            <v>1017.3</v>
+          </cell>
+          <cell r="H251">
+            <v>1.46</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252">
+            <v>1021.3</v>
+          </cell>
+          <cell r="H252">
+            <v>0.96</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253">
+            <v>1025.3</v>
+          </cell>
+          <cell r="H253">
+            <v>1.1000000000000001</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254">
+            <v>1029.4000000000001</v>
+          </cell>
+          <cell r="H254">
+            <v>0.84</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255">
+            <v>1033.4000000000001</v>
+          </cell>
+          <cell r="H255">
+            <v>0.68</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256">
+            <v>1037.5</v>
+          </cell>
+          <cell r="H256">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257">
+            <v>1041.5</v>
+          </cell>
+          <cell r="H257">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258">
+            <v>1045.5</v>
+          </cell>
+          <cell r="H258">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259">
+            <v>1049.5999999999999</v>
+          </cell>
+          <cell r="H259">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260">
+            <v>1053.5999999999999</v>
+          </cell>
+          <cell r="H260">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261">
+            <v>1057.5999999999999</v>
+          </cell>
+          <cell r="H261">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262">
+            <v>1061.7</v>
+          </cell>
+          <cell r="H262">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263">
+            <v>1065.7</v>
+          </cell>
+          <cell r="H263">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264">
+            <v>1069.8</v>
+          </cell>
+          <cell r="H264">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265">
+            <v>1073.8</v>
+          </cell>
+          <cell r="H265">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266">
+            <v>1077.8</v>
+          </cell>
+          <cell r="H266">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267">
+            <v>1081.9000000000001</v>
+          </cell>
+          <cell r="H267">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268">
+            <v>1085.9000000000001</v>
+          </cell>
+          <cell r="H268">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269">
+            <v>1089.9000000000001</v>
+          </cell>
+          <cell r="H269">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270">
+            <v>1094</v>
+          </cell>
+          <cell r="H270">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271">
+            <v>1098</v>
+          </cell>
+          <cell r="H271">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272">
+            <v>1102</v>
+          </cell>
+          <cell r="H272">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273">
+            <v>1106.0999999999999</v>
+          </cell>
+          <cell r="H273">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274">
+            <v>1110.0999999999999</v>
+          </cell>
+          <cell r="H274">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275">
+            <v>1114.2</v>
+          </cell>
+          <cell r="H275">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276">
+            <v>1118.2</v>
+          </cell>
+          <cell r="H276">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277">
+            <v>1122.2</v>
+          </cell>
+          <cell r="H277">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278">
+            <v>1126.3</v>
+          </cell>
+          <cell r="H278">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279">
+            <v>1130.3</v>
+          </cell>
+          <cell r="H279">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280">
+            <v>1134.3</v>
+          </cell>
+          <cell r="H280">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281">
+            <v>1138.4000000000001</v>
+          </cell>
+          <cell r="H281">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282">
+            <v>1142.4000000000001</v>
+          </cell>
+          <cell r="H282">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283">
+            <v>1146.4000000000001</v>
+          </cell>
+          <cell r="H283">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284">
+            <v>1150.5</v>
+          </cell>
+          <cell r="H284">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285">
+            <v>1154.5</v>
+          </cell>
+          <cell r="H285">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286">
+            <v>1158.5999999999999</v>
+          </cell>
+          <cell r="H286">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287">
+            <v>1162.5999999999999</v>
+          </cell>
+          <cell r="H287">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288">
+            <v>1166.5999999999999</v>
+          </cell>
+          <cell r="H288">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289">
+            <v>1170.7</v>
+          </cell>
+          <cell r="H289">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290">
+            <v>1174.7</v>
+          </cell>
+          <cell r="H290">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291">
+            <v>1178.7</v>
+          </cell>
+          <cell r="H291">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292">
+            <v>1182.8</v>
+          </cell>
+          <cell r="H292">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293">
+            <v>1186.8</v>
+          </cell>
+          <cell r="H293">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294">
+            <v>1190.8</v>
+          </cell>
+          <cell r="H294">
+            <v>1.01</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295">
+            <v>1194.9000000000001</v>
+          </cell>
+          <cell r="H295">
+            <v>0.74</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296">
+            <v>1198.9000000000001</v>
+          </cell>
+          <cell r="H296">
+            <v>1.06</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297">
+            <v>1203</v>
+          </cell>
+          <cell r="H297">
+            <v>0.83</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298">
+            <v>1207</v>
+          </cell>
+          <cell r="H298">
+            <v>0.76</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299">
+            <v>1211</v>
+          </cell>
+          <cell r="H299">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300">
+            <v>1215.0999999999999</v>
+          </cell>
+          <cell r="H300">
+            <v>1.0900000000000001</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301">
+            <v>1219.0999999999999</v>
+          </cell>
+          <cell r="H301">
+            <v>0.97</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302">
+            <v>1223.0999999999999</v>
+          </cell>
+          <cell r="H302">
+            <v>1.17</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303">
+            <v>1227.2</v>
+          </cell>
+          <cell r="H303">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304">
+            <v>1231.2</v>
+          </cell>
+          <cell r="H304">
+            <v>0.95</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305">
+            <v>1235.2</v>
+          </cell>
+          <cell r="H305">
+            <v>1.17</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306">
+            <v>1239.3</v>
+          </cell>
+          <cell r="H306">
+            <v>0.42</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307">
+            <v>1243.3</v>
+          </cell>
+          <cell r="H307">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308">
+            <v>1247.3999999999999</v>
+          </cell>
+          <cell r="H308">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309">
+            <v>1251.3999999999999</v>
+          </cell>
+          <cell r="H309">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310">
+            <v>1255.3999999999999</v>
+          </cell>
+          <cell r="H310">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311">
+            <v>1259.5</v>
+          </cell>
+          <cell r="H311">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312">
+            <v>1263.5</v>
+          </cell>
+          <cell r="H312">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313">
+            <v>1267.5</v>
+          </cell>
+          <cell r="H313">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314">
+            <v>1271.5999999999999</v>
+          </cell>
+          <cell r="H314">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315">
+            <v>1275.5999999999999</v>
+          </cell>
+          <cell r="H315">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316">
+            <v>1279.5999999999999</v>
+          </cell>
+          <cell r="H316">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317">
+            <v>1283.7</v>
+          </cell>
+          <cell r="H317">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318">
+            <v>1287.7</v>
+          </cell>
+          <cell r="H318">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319">
+            <v>1291.8</v>
+          </cell>
+          <cell r="H319">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320">
+            <v>1295.8</v>
+          </cell>
+          <cell r="H320">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321">
+            <v>1299.8</v>
+          </cell>
+          <cell r="H321">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322">
+            <v>1303.8999999999999</v>
+          </cell>
+          <cell r="H322">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323">
+            <v>1307.8999999999999</v>
+          </cell>
+          <cell r="H323">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324">
+            <v>1311.8999999999999</v>
+          </cell>
+          <cell r="H324">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325">
+            <v>1316</v>
+          </cell>
+          <cell r="H325">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326">
+            <v>1320</v>
+          </cell>
+          <cell r="H326">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327">
+            <v>1324</v>
+          </cell>
+          <cell r="H327">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328">
+            <v>1328.1</v>
+          </cell>
+          <cell r="H328">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329">
+            <v>1332.1</v>
+          </cell>
+          <cell r="H329">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330">
+            <v>1336.2</v>
+          </cell>
+          <cell r="H330">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331">
+            <v>1340.2</v>
+          </cell>
+          <cell r="H331">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332">
+            <v>1344.2</v>
+          </cell>
+          <cell r="H332">
+            <v>0.73</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333">
+            <v>1348.3</v>
+          </cell>
+          <cell r="H333">
+            <v>0.66</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334">
+            <v>1352.3</v>
+          </cell>
+          <cell r="H334">
+            <v>1.28</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335">
+            <v>1356.3</v>
+          </cell>
+          <cell r="H335">
+            <v>0.87</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336">
+            <v>1360.3999999999999</v>
+          </cell>
+          <cell r="H336">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337">
+            <v>1364.3999999999999</v>
+          </cell>
+          <cell r="H337">
+            <v>0.64</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338">
+            <v>1368.5</v>
+          </cell>
+          <cell r="H338">
+            <v>0.95</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339">
+            <v>1372.5</v>
+          </cell>
+          <cell r="H339">
+            <v>1.24</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340">
+            <v>1376.5</v>
+          </cell>
+          <cell r="H340">
+            <v>1.03</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341">
+            <v>1380.6</v>
+          </cell>
+          <cell r="H341">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342">
+            <v>1384.6</v>
+          </cell>
+          <cell r="H342">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343">
+            <v>1388.6</v>
+          </cell>
+          <cell r="H343">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344">
+            <v>1392.7</v>
+          </cell>
+          <cell r="H344">
+            <v>0.92</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345">
+            <v>1396.7</v>
+          </cell>
+          <cell r="H345">
+            <v>0.97</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346">
+            <v>1400.7</v>
+          </cell>
+          <cell r="H346">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347">
+            <v>1404.8</v>
+          </cell>
+          <cell r="H347">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348">
+            <v>1408.8</v>
+          </cell>
+          <cell r="H348">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349">
+            <v>1412.8999999999999</v>
+          </cell>
+          <cell r="H349">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350">
+            <v>1416.8999999999999</v>
+          </cell>
+          <cell r="H350">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351">
+            <v>1420.8999999999999</v>
+          </cell>
+          <cell r="H351">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352">
+            <v>1425</v>
+          </cell>
+          <cell r="H352">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353">
+            <v>1429</v>
+          </cell>
+          <cell r="H353">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354">
+            <v>1433</v>
+          </cell>
+          <cell r="H354">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355">
+            <v>1437.1</v>
+          </cell>
+          <cell r="H355">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356">
+            <v>1441.1</v>
+          </cell>
+          <cell r="H356">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357">
+            <v>1445.1</v>
+          </cell>
+          <cell r="H357">
+            <v>0.17</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358">
+            <v>1449.2</v>
+          </cell>
+          <cell r="H358">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359">
+            <v>1453.2</v>
+          </cell>
+          <cell r="H359">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360">
+            <v>1457.3</v>
+          </cell>
+          <cell r="H360">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361">
+            <v>1461.3</v>
+          </cell>
+          <cell r="H361">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362">
+            <v>1465.3</v>
+          </cell>
+          <cell r="H362">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363">
+            <v>1469.3999999999999</v>
+          </cell>
+          <cell r="H363">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364">
+            <v>1473.3999999999999</v>
+          </cell>
+          <cell r="H364">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365">
+            <v>1477.3999999999999</v>
+          </cell>
+          <cell r="H365">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366">
+            <v>1481.5</v>
+          </cell>
+          <cell r="H366">
+            <v>1.42</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>1485.5</v>
+          </cell>
+          <cell r="H367">
+            <v>0.87</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368">
+            <v>1489.5</v>
+          </cell>
+          <cell r="H368">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369">
+            <v>1493.6</v>
+          </cell>
+          <cell r="H369">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370">
+            <v>1497.6</v>
+          </cell>
+          <cell r="H370">
+            <v>0.89</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371">
+            <v>1501.7</v>
+          </cell>
+          <cell r="H371">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372">
+            <v>1505.7</v>
+          </cell>
+          <cell r="H372">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373">
+            <v>1509.7</v>
+          </cell>
+          <cell r="H373">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374">
+            <v>1513.8</v>
+          </cell>
+          <cell r="H374">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375">
+            <v>1517.8</v>
+          </cell>
+          <cell r="H375">
+            <v>0.85</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376">
+            <v>1521.8</v>
+          </cell>
+          <cell r="H376">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377">
+            <v>1525.8999999999999</v>
+          </cell>
+          <cell r="H377">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378">
+            <v>1529.8999999999999</v>
+          </cell>
+          <cell r="H378">
+            <v>0.67</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379">
+            <v>1533.8999999999999</v>
+          </cell>
+          <cell r="H379">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380">
+            <v>1538</v>
+          </cell>
+          <cell r="H380">
+            <v>0.41</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381">
+            <v>1542</v>
+          </cell>
+          <cell r="H381">
+            <v>0.64</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382">
+            <v>1546.1</v>
+          </cell>
+          <cell r="H382">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383">
+            <v>1550.1</v>
+          </cell>
+          <cell r="H383">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384">
+            <v>1554.1</v>
+          </cell>
+          <cell r="H384">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385">
+            <v>1558.2</v>
+          </cell>
+          <cell r="H385">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386">
+            <v>1562.2</v>
+          </cell>
+          <cell r="H386">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387">
+            <v>1566.2</v>
+          </cell>
+          <cell r="H387">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388">
+            <v>1570.3</v>
+          </cell>
+          <cell r="H388">
+            <v>0.01</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,12 +7636,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12.1</v>
@@ -2084,5 +8899,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>